--- a/medicine/Enfance/Xavier_Kawa-Topor/Xavier_Kawa-Topor.xlsx
+++ b/medicine/Enfance/Xavier_Kawa-Topor/Xavier_Kawa-Topor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xavier Kawa-Topor, né en 1967[1], est un historien, écrivain et directeur artistique français. Il exerce des responsabilités en France dans le domaine de la culture et des arts.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xavier Kawa-Topor, né en 1967, est un historien, écrivain et directeur artistique français. Il exerce des responsabilités en France dans le domaine de la culture et des arts.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historien et archéologue[2] formé au Centre d'études supérieures de civilisation médiévale à Poitiers, proche de Jacques Le Goff[3], également diplômé de l'Institut d'études politiques de Grenoble, Xavier Kawa-Topor a été directeur du Centre européen d'art et de civilisation médiévale à Conques (Aveyron), au moment de la création des vitraux de l'abbatiale par Pierre Soulages. Il s'intéresse alors à la relation entre Moyen Âge et culture contemporaine et crée, avec la Cinémathèque de Toulouse, le festival Cinéma et Moyen Âge[4] qui accueille des réalisateurs comme Terry Gilliam, Gabriel Axel ou Otar Iosseliani.
-Rejoignant le Forum des images à Paris, il ouvre le lieu au cinéma d'animation avec notamment Nouvelles images du Japon, une biennale consacrée au cinéma d'animation japonais dont il assure, avec Ilan Nguyên, la direction artistique : le festival comptera trois éditions (1999, 2001, 2003) et jouera un rôle pionnier dans la reconnaissance internationale de l'œuvre de Hayao Miyazaki, Isao Takahata, Satoshi Kon, Makoto Shinkai, Koji Yamamura[5].
-Il dirige ensuite, de 2005 à 2014, l'abbaye royale de Fontevraud[6], centre culturel de rencontre, et développe, pour le site, un projet autour du concept de cité idéale. L'abbaye accueille des artistes comme François Morellet, Matali Crasset, Jiro Taniguchi et devient un lieu de débat d'idées auxquels participent de nombreux intellectuels et écrivains comme Jacques Le Goff, Umberto Eco, Edgar Morin, Françoise Héritier, Antonio Tabucchi, Jacques Roubaud, Marc Augé.
-Fontevraud devient également un lieu de création pour le cinéma d'animation avec des résidences et  de grandes expositions comme Mondes et Merveilles du dessin animé, présentée en 2008 en partenariat avec le Studio Ghibli[7].
-En 2015, il fonde la NEF Animation (Nouvelles écritures pour le film d'animation), association nationale de recherche et création sur le film d'animation[8].
-En 2020 paraît le premier numéro de la revue Blink Blank[9], publication spécialisée sur le film d'animation dont il est, avec Marcel Jean, le directeur éditorial.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historien et archéologue formé au Centre d'études supérieures de civilisation médiévale à Poitiers, proche de Jacques Le Goff, également diplômé de l'Institut d'études politiques de Grenoble, Xavier Kawa-Topor a été directeur du Centre européen d'art et de civilisation médiévale à Conques (Aveyron), au moment de la création des vitraux de l'abbatiale par Pierre Soulages. Il s'intéresse alors à la relation entre Moyen Âge et culture contemporaine et crée, avec la Cinémathèque de Toulouse, le festival Cinéma et Moyen Âge qui accueille des réalisateurs comme Terry Gilliam, Gabriel Axel ou Otar Iosseliani.
+Rejoignant le Forum des images à Paris, il ouvre le lieu au cinéma d'animation avec notamment Nouvelles images du Japon, une biennale consacrée au cinéma d'animation japonais dont il assure, avec Ilan Nguyên, la direction artistique : le festival comptera trois éditions (1999, 2001, 2003) et jouera un rôle pionnier dans la reconnaissance internationale de l'œuvre de Hayao Miyazaki, Isao Takahata, Satoshi Kon, Makoto Shinkai, Koji Yamamura.
+Il dirige ensuite, de 2005 à 2014, l'abbaye royale de Fontevraud, centre culturel de rencontre, et développe, pour le site, un projet autour du concept de cité idéale. L'abbaye accueille des artistes comme François Morellet, Matali Crasset, Jiro Taniguchi et devient un lieu de débat d'idées auxquels participent de nombreux intellectuels et écrivains comme Jacques Le Goff, Umberto Eco, Edgar Morin, Françoise Héritier, Antonio Tabucchi, Jacques Roubaud, Marc Augé.
+Fontevraud devient également un lieu de création pour le cinéma d'animation avec des résidences et  de grandes expositions comme Mondes et Merveilles du dessin animé, présentée en 2008 en partenariat avec le Studio Ghibli.
+En 2015, il fonde la NEF Animation (Nouvelles écritures pour le film d'animation), association nationale de recherche et création sur le film d'animation.
+En 2020 paraît le premier numéro de la revue Blink Blank, publication spécialisée sur le film d'animation dont il est, avec Marcel Jean, le directeur éditorial.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xavier Kawa-Topor est le petit-fils de Stanislaw Kawa-Topor[10], héros de la résistance polonaise en France et commandant du maquis de Marigny.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xavier Kawa-Topor est le petit-fils de Stanislaw Kawa-Topor, héros de la résistance polonaise en France et commandant du maquis de Marigny.
 </t>
         </is>
       </c>
@@ -578,12 +594,14 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Xavier Kawa-Topor consacre ses premiers travaux de recherche à l'imaginaire médiéval et à ses représentations contemporaines, notamment au cinéma. Il se spécialise par la suite dans l'histoire et l'esthétique du cinéma d'animation, publiant de nombreux articles et plusieurs ouvrages de référence sur le sujet.
-Il contribue  en tant que commissaire ou programmateur à des expositions et festivals comme Héros et Merveilles du Moyen Âge[11] (autour de Jacques Le Goff) Mondes et Merveilles du dessin animé à l'abbaye royale de Fontevraud, Moebius Transe forme[12] à la Fondation Cartier à Paris, au Festival Premiers Plans d'Angers[13] et au Festival international du film de La Rochelle, etc.
-Il a initié et assuré la direction artistique du long-métrage d'animation Les Contes de l'horloge magique[14] de Ladislas Starewitch, composé de trois courts métrages d'animation réalisés entre 1924 et 1928, sorti en salles en 2003.
-Il est également auteur de livres pour enfants et scénariste [15].
+Il contribue  en tant que commissaire ou programmateur à des expositions et festivals comme Héros et Merveilles du Moyen Âge (autour de Jacques Le Goff) Mondes et Merveilles du dessin animé à l'abbaye royale de Fontevraud, Moebius Transe forme à la Fondation Cartier à Paris, au Festival Premiers Plans d'Angers et au Festival international du film de La Rochelle, etc.
+Il a initié et assuré la direction artistique du long-métrage d'animation Les Contes de l'horloge magique de Ladislas Starewitch, composé de trois courts métrages d'animation réalisés entre 1924 et 1928, sorti en salles en 2003.
+Il est également auteur de livres pour enfants et scénariste .
 </t>
         </is>
       </c>
@@ -614,8 +632,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Essais
-Le tympan de Conques, Le Pérégrinateur éditeur, 1997.
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le tympan de Conques, Le Pérégrinateur éditeur, 1997.
 Le trésor de Conques, Le Pérégrinateur éditeur, 1997.
 Le Moyen Âge vu par le cinéma européen (direction), Cinémathèque de Toulouse/CEACM, 2001.
 Le cinéma d'animation en 100 films, direction avec Philippe Moins, Capricci, 2016.
@@ -625,14 +648,82 @@
 Michael Dudok de Wit, le cinéma d'animation sensible, entretien avec Michael Dudok de Wit, en collaboration avec Ilan Nguyen, Capricci, 2019.
 Stop Motion, un autre cinéma d'animation, avec Philippe Moins, Capricci, 2020.
 L'Odyssée de la Planète Sauvage, avec Fabrice Blin, Capricci, 2023.
-L'Esprit du temps, avec Cécile Noesser, Éditions de l'Oeil, 2023.
-Récits
-Algérie - récit de voyage - 1988, L'Harmattan, 2003.
+L'Esprit du temps, avec Cécile Noesser, Éditions de l'Oeil, 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xavier_Kawa-Topor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xavier_Kawa-Topor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Algérie - récit de voyage - 1988, L'Harmattan, 2003.
 Mon Roman de Renart, livre-disque : musique de Jean-Marie Sénia, voix de Rufus, Actes Sud, 2004.
 L'Horloge magique, avec Jean Rubak, adapté d'un conte de Ladislas Starewitch, livre-dvd, Actes Sud, 2004.
-Jeanne - Un prince en otage, avec Alix de Maistre, Michel Lafon, 2023
-Contributions
-Jacques Le Goff, Pierre Soulages, Comment mettre une œuvre d'art dans un lieu chargé d'histoire ?, ( préface), Le Pérégrinateur, 2003.
+Jeanne - Un prince en otage, avec Alix de Maistre, Michel Lafon, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xavier_Kawa-Topor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xavier_Kawa-Topor</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jacques Le Goff, Pierre Soulages, Comment mettre une œuvre d'art dans un lieu chargé d'histoire ?, ( préface), Le Pérégrinateur, 2003.
 Jean-François Laguionie, Maurice Corbet, Lucie Cabanes et Pascal Vimenet, (préface), éditions de l'Oeil, 2016.
 Chine, art en mouvement, collectif, éditions de l'Œil, 2017.
 De Zéro de conduite à Tomboy: des films pour l’enfant spectateur, sous la direction d'Hervé-Joubert Laurencin, éditions Yellow Now, 2022
@@ -643,65 +734,69 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Xavier_Kawa-Topor</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Xavier_Kawa-Topor</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les Contes de l'horloge magique de Ladislas Starewitch, trois courts métrages d'animation réalisés entre 1924 et 1928. Direction artistique et direction de production de l'adaptation, 2003[14].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Contes de l'horloge magique de Ladislas Starewitch, trois courts métrages d'animation réalisés entre 1924 et 1928. Direction artistique et direction de production de l'adaptation, 2003.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Xavier_Kawa-Topor</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Xavier_Kawa-Topor</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 2021, l'Animafest de Zagreb lui décerne l’Award for Outstanding Contribution to Animation Studies[16].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En 2021, l'Animafest de Zagreb lui décerne l’Award for Outstanding Contribution to Animation Studies.
 Médaille Beaumarchais de la SACD en 2022.
-Lauréat Zellidja[Quand ?][17].</t>
+Lauréat Zellidja[Quand ?].</t>
         </is>
       </c>
     </row>
